--- a/docs/DataBase.xlsx
+++ b/docs/DataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="223" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="160" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Database Toi Yeu Hang Viet" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>Thông tin Doanh nghiệp</t>
   </si>
@@ -243,9 +243,6 @@
     <t>id_productgroup</t>
   </si>
   <si>
-    <t>quanlity</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -259,6 +256,15 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Product_Media</t>
+  </si>
+  <si>
+    <t>id_media</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -268,7 +274,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Tahoma"/>
       <charset val="1"/>
@@ -290,6 +296,14 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,8 +348,9 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
@@ -361,10 +376,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.478431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9176470588235"/>
-    <col collapsed="false" hidden="false" max="257" min="4" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="4" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="1">
@@ -561,20 +576,20 @@
   </sheetPr>
   <dimension ref="B2:D96"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B82" activeCellId="0" pane="topLeft" sqref="B82"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A67" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B97" activeCellId="0" pane="topLeft" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.9921568627451"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="0" width="8.67843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -660,7 +675,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -736,7 +751,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -764,7 +779,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -804,7 +819,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -831,8 +846,8 @@
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
-      <c r="B53" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="53">
+      <c r="B53" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -866,8 +881,8 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
-      <c r="B61" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="61">
+      <c r="B61" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -895,7 +910,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -942,8 +957,8 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="76">
-      <c r="B76" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="76">
+      <c r="B76" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="0" t="s">
@@ -960,22 +975,57 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="79">
       <c r="B79" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="80">
       <c r="B80" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="81">
-      <c r="B81" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="82">
+      <c r="B82" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="83">
+      <c r="B83" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="84">
+      <c r="B84" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="85">
+      <c r="B85" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="86">
+      <c r="B86" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="87">
+      <c r="B87" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="89">
+      <c r="B89" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="90">
+      <c r="B90" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="91">
@@ -985,27 +1035,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="92">
       <c r="B92" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="93">
-      <c r="B93" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="94">
-      <c r="B94" s="0" t="s">
-        <v>52</v>
+      <c r="B94" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="95">
       <c r="B95" s="0" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="96">
       <c r="B96" s="0" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
